--- a/test.xlsx
+++ b/test.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Email</t>
   </si>
@@ -24,15 +24,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>phhuy0612@gmail.com</t>
-  </si>
-  <si>
-    <t>Pham Quang Huy</t>
-  </si>
-  <si>
-    <t>flyasd136@gmail.com</t>
-  </si>
-  <si>
     <t>SBD</t>
   </si>
 </sst>
@@ -40,18 +31,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,21 +57,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -396,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,44 +394,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
